--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H2">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I2">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J2">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.858820278469918</v>
+        <v>0.9703876666666668</v>
       </c>
       <c r="N2">
-        <v>0.858820278469918</v>
+        <v>2.911163</v>
       </c>
       <c r="O2">
-        <v>0.03583464644574196</v>
+        <v>0.03945299285965207</v>
       </c>
       <c r="P2">
-        <v>0.03583464644574196</v>
+        <v>0.04754668824173519</v>
       </c>
       <c r="Q2">
-        <v>6.263288293776405</v>
+        <v>7.630656355335556</v>
       </c>
       <c r="R2">
-        <v>6.263288293776405</v>
+        <v>68.67590719802</v>
       </c>
       <c r="S2">
-        <v>0.004612078177030897</v>
+        <v>0.005194828715198666</v>
       </c>
       <c r="T2">
-        <v>0.004612078177030897</v>
+        <v>0.006545558775933106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H3">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I3">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J3">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.898684428323798</v>
+        <v>1.041192666666667</v>
       </c>
       <c r="N3">
-        <v>0.898684428323798</v>
+        <v>3.123578</v>
       </c>
       <c r="O3">
-        <v>0.0374979952879688</v>
+        <v>0.04233170747586662</v>
       </c>
       <c r="P3">
-        <v>0.0374979952879688</v>
+        <v>0.05101596487889641</v>
       </c>
       <c r="Q3">
-        <v>6.554013454069533</v>
+        <v>8.187432416902222</v>
       </c>
       <c r="R3">
-        <v>6.554013454069533</v>
+        <v>73.68689175211999</v>
       </c>
       <c r="S3">
-        <v>0.004826158561712231</v>
+        <v>0.005573872946503793</v>
       </c>
       <c r="T3">
-        <v>0.004826158561712231</v>
+        <v>0.007023159950236926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H4">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I4">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J4">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.01333326596833</v>
+        <v>5.170211333333333</v>
       </c>
       <c r="N4">
-        <v>5.01333326596833</v>
+        <v>15.510634</v>
       </c>
       <c r="O4">
-        <v>0.209183492290983</v>
+        <v>0.2102049704707969</v>
       </c>
       <c r="P4">
-        <v>0.209183492290983</v>
+        <v>0.2533280614069559</v>
       </c>
       <c r="Q4">
-        <v>36.56172582869342</v>
+        <v>40.65602575581777</v>
       </c>
       <c r="R4">
-        <v>36.56172582869342</v>
+        <v>365.90423180236</v>
       </c>
       <c r="S4">
-        <v>0.02692284466238936</v>
+        <v>0.02767797161963681</v>
       </c>
       <c r="T4">
-        <v>0.02692284466238936</v>
+        <v>0.03487464168065698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H5">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I5">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J5">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.6353900043942</v>
+        <v>4.853575333333334</v>
       </c>
       <c r="N5">
-        <v>4.6353900043942</v>
+        <v>14.560726</v>
       </c>
       <c r="O5">
-        <v>0.1934136467312243</v>
+        <v>0.1973315197085667</v>
       </c>
       <c r="P5">
-        <v>0.1934136467312243</v>
+        <v>0.2378136503161547</v>
       </c>
       <c r="Q5">
-        <v>33.80542434714679</v>
+        <v>38.16615434800444</v>
       </c>
       <c r="R5">
-        <v>33.80542434714679</v>
+        <v>343.49538913204</v>
       </c>
       <c r="S5">
-        <v>0.02489319548832996</v>
+        <v>0.0259829070165222</v>
       </c>
       <c r="T5">
-        <v>0.02489319548832996</v>
+        <v>0.03273883594056992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H6">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I6">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J6">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.559971320227</v>
+        <v>12.56068</v>
       </c>
       <c r="N6">
-        <v>12.559971320227</v>
+        <v>25.12136</v>
       </c>
       <c r="O6">
-        <v>0.5240702192440819</v>
+        <v>0.5106788094851177</v>
       </c>
       <c r="P6">
-        <v>0.5240702192440819</v>
+        <v>0.4102956351562577</v>
       </c>
       <c r="Q6">
-        <v>91.5985839089623</v>
+        <v>98.77107465573332</v>
       </c>
       <c r="R6">
-        <v>91.5985839089623</v>
+        <v>592.6264479343999</v>
       </c>
       <c r="S6">
-        <v>0.06745016516535587</v>
+        <v>0.06724176675756897</v>
       </c>
       <c r="T6">
-        <v>0.06745016516535587</v>
+        <v>0.05648372777868326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H7">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I7">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J7">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.858820278469918</v>
+        <v>0.9703876666666668</v>
       </c>
       <c r="N7">
-        <v>0.858820278469918</v>
+        <v>2.911163</v>
       </c>
       <c r="O7">
-        <v>0.03583464644574196</v>
+        <v>0.03945299285965207</v>
       </c>
       <c r="P7">
-        <v>0.03583464644574196</v>
+        <v>0.04754668824173519</v>
       </c>
       <c r="Q7">
-        <v>11.73839130389372</v>
+        <v>14.68174964714211</v>
       </c>
       <c r="R7">
-        <v>11.73839130389372</v>
+        <v>132.135746824279</v>
       </c>
       <c r="S7">
-        <v>0.008643762801072522</v>
+        <v>0.009995100172870754</v>
       </c>
       <c r="T7">
-        <v>0.008643762801072522</v>
+        <v>0.01259396974176514</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H8">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I8">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J8">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.898684428323798</v>
+        <v>1.041192666666667</v>
       </c>
       <c r="N8">
-        <v>0.898684428323798</v>
+        <v>3.123578</v>
       </c>
       <c r="O8">
-        <v>0.0374979952879688</v>
+        <v>0.04233170747586662</v>
       </c>
       <c r="P8">
-        <v>0.0374979952879688</v>
+        <v>0.05101596487889641</v>
       </c>
       <c r="Q8">
-        <v>12.2832561629485</v>
+        <v>15.75301355483045</v>
       </c>
       <c r="R8">
-        <v>12.2832561629485</v>
+        <v>141.777121993474</v>
       </c>
       <c r="S8">
-        <v>0.009044983247586954</v>
+        <v>0.01072439949524478</v>
       </c>
       <c r="T8">
-        <v>0.009044983247586954</v>
+        <v>0.01351289736027947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H9">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I9">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J9">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.01333326596833</v>
+        <v>5.170211333333333</v>
       </c>
       <c r="N9">
-        <v>5.01333326596833</v>
+        <v>15.510634</v>
       </c>
       <c r="O9">
-        <v>0.209183492290983</v>
+        <v>0.2102049704707969</v>
       </c>
       <c r="P9">
-        <v>0.209183492290983</v>
+        <v>0.2533280614069559</v>
       </c>
       <c r="Q9">
-        <v>68.52244769721635</v>
+        <v>78.22414796301356</v>
       </c>
       <c r="R9">
-        <v>68.52244769721635</v>
+        <v>704.017331667122</v>
       </c>
       <c r="S9">
-        <v>0.05045766230736987</v>
+        <v>0.05325374792642494</v>
       </c>
       <c r="T9">
-        <v>0.05045766230736987</v>
+        <v>0.06710048708079677</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H10">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I10">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J10">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.6353900043942</v>
+        <v>4.853575333333334</v>
       </c>
       <c r="N10">
-        <v>4.6353900043942</v>
+        <v>14.560726</v>
       </c>
       <c r="O10">
-        <v>0.1934136467312243</v>
+        <v>0.1973315197085667</v>
       </c>
       <c r="P10">
-        <v>0.1934136467312243</v>
+        <v>0.2378136503161547</v>
       </c>
       <c r="Q10">
-        <v>63.35670347080961</v>
+        <v>73.43351568175089</v>
       </c>
       <c r="R10">
-        <v>63.35670347080961</v>
+        <v>660.901641135758</v>
       </c>
       <c r="S10">
-        <v>0.04665377925149845</v>
+        <v>0.04999236214520578</v>
       </c>
       <c r="T10">
-        <v>0.04665377925149845</v>
+        <v>0.06299109416481762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H11">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I11">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J11">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.559971320227</v>
+        <v>12.56068</v>
       </c>
       <c r="N11">
-        <v>12.559971320227</v>
+        <v>25.12136</v>
       </c>
       <c r="O11">
-        <v>0.5240702192440819</v>
+        <v>0.5106788094851177</v>
       </c>
       <c r="P11">
-        <v>0.5240702192440819</v>
+        <v>0.4102956351562577</v>
       </c>
       <c r="Q11">
-        <v>171.6702106582492</v>
+        <v>190.0402957421467</v>
       </c>
       <c r="R11">
-        <v>171.6702106582492</v>
+        <v>1140.24177445288</v>
       </c>
       <c r="S11">
-        <v>0.1264122606347128</v>
+        <v>0.1293763916751218</v>
       </c>
       <c r="T11">
-        <v>0.1264122606347128</v>
+        <v>0.1086774075213202</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H12">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I12">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J12">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.858820278469918</v>
+        <v>0.9703876666666668</v>
       </c>
       <c r="N12">
-        <v>0.858820278469918</v>
+        <v>2.911163</v>
       </c>
       <c r="O12">
-        <v>0.03583464644574196</v>
+        <v>0.03945299285965207</v>
       </c>
       <c r="P12">
-        <v>0.03583464644574196</v>
+        <v>0.04754668824173519</v>
       </c>
       <c r="Q12">
-        <v>11.72134544614267</v>
+        <v>13.95646605541022</v>
       </c>
       <c r="R12">
-        <v>11.72134544614267</v>
+        <v>125.608194498692</v>
       </c>
       <c r="S12">
-        <v>0.0086312107956634</v>
+        <v>0.009501338712055296</v>
       </c>
       <c r="T12">
-        <v>0.0086312107956634</v>
+        <v>0.0119718232110042</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H13">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I13">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J13">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.898684428323798</v>
+        <v>1.041192666666667</v>
       </c>
       <c r="N13">
-        <v>0.898684428323798</v>
+        <v>3.123578</v>
       </c>
       <c r="O13">
-        <v>0.0374979952879688</v>
+        <v>0.04233170747586662</v>
       </c>
       <c r="P13">
-        <v>0.0374979952879688</v>
+        <v>0.05101596487889641</v>
       </c>
       <c r="Q13">
-        <v>12.26541908188239</v>
+        <v>14.97480914961689</v>
       </c>
       <c r="R13">
-        <v>12.26541908188239</v>
+        <v>134.773282346552</v>
       </c>
       <c r="S13">
-        <v>0.009031848611519079</v>
+        <v>0.01019461039162845</v>
       </c>
       <c r="T13">
-        <v>0.009031848611519079</v>
+        <v>0.01284535548225299</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H14">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I14">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J14">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.01333326596833</v>
+        <v>5.170211333333333</v>
       </c>
       <c r="N14">
-        <v>5.01333326596833</v>
+        <v>15.510634</v>
       </c>
       <c r="O14">
-        <v>0.209183492290983</v>
+        <v>0.2102049704707969</v>
       </c>
       <c r="P14">
-        <v>0.209183492290983</v>
+        <v>0.2533280614069559</v>
       </c>
       <c r="Q14">
-        <v>68.42294310020969</v>
+        <v>74.35984756569512</v>
       </c>
       <c r="R14">
-        <v>68.42294310020969</v>
+        <v>669.2386280912559</v>
       </c>
       <c r="S14">
-        <v>0.05038439041585809</v>
+        <v>0.05062299406550615</v>
       </c>
       <c r="T14">
-        <v>0.05038439041585809</v>
+        <v>0.06378569943991141</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H15">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I15">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J15">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.6353900043942</v>
+        <v>4.853575333333334</v>
       </c>
       <c r="N15">
-        <v>4.6353900043942</v>
+        <v>14.560726</v>
       </c>
       <c r="O15">
-        <v>0.1934136467312243</v>
+        <v>0.1973315197085667</v>
       </c>
       <c r="P15">
-        <v>0.1934136467312243</v>
+        <v>0.2378136503161547</v>
       </c>
       <c r="Q15">
-        <v>63.26470028851832</v>
+        <v>69.80587420255378</v>
       </c>
       <c r="R15">
-        <v>63.26470028851832</v>
+        <v>628.2528678229841</v>
       </c>
       <c r="S15">
-        <v>0.04658603115347704</v>
+        <v>0.04752272188792935</v>
       </c>
       <c r="T15">
-        <v>0.04658603115347704</v>
+        <v>0.05987931197802125</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H16">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I16">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J16">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.559971320227</v>
+        <v>12.56068</v>
       </c>
       <c r="N16">
-        <v>12.559971320227</v>
+        <v>25.12136</v>
       </c>
       <c r="O16">
-        <v>0.5240702192440819</v>
+        <v>0.5106788094851177</v>
       </c>
       <c r="P16">
-        <v>0.5240702192440819</v>
+        <v>0.4102956351562577</v>
       </c>
       <c r="Q16">
-        <v>171.4209204518475</v>
+        <v>180.6522383523733</v>
       </c>
       <c r="R16">
-        <v>171.4209204518475</v>
+        <v>1083.91343011424</v>
       </c>
       <c r="S16">
-        <v>0.1262286915785293</v>
+        <v>0.1229851524635399</v>
       </c>
       <c r="T16">
-        <v>0.1262286915785293</v>
+        <v>0.1033087054005538</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H17">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I17">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J17">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.858820278469918</v>
+        <v>0.9703876666666668</v>
       </c>
       <c r="N17">
-        <v>0.858820278469918</v>
+        <v>2.911163</v>
       </c>
       <c r="O17">
-        <v>0.03583464644574196</v>
+        <v>0.03945299285965207</v>
       </c>
       <c r="P17">
-        <v>0.03583464644574196</v>
+        <v>0.04754668824173519</v>
       </c>
       <c r="Q17">
-        <v>12.26617863951554</v>
+        <v>14.11293039239589</v>
       </c>
       <c r="R17">
-        <v>12.26617863951554</v>
+        <v>127.016373531563</v>
       </c>
       <c r="S17">
-        <v>0.009032407924617842</v>
+        <v>0.009607857128404805</v>
       </c>
       <c r="T17">
-        <v>0.009032407924617842</v>
+        <v>0.01210603794514839</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H18">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I18">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J18">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.898684428323798</v>
+        <v>1.041192666666667</v>
       </c>
       <c r="N18">
-        <v>0.898684428323798</v>
+        <v>3.123578</v>
       </c>
       <c r="O18">
-        <v>0.0374979952879688</v>
+        <v>0.04233170747586662</v>
       </c>
       <c r="P18">
-        <v>0.0374979952879688</v>
+        <v>0.05101596487889641</v>
       </c>
       <c r="Q18">
-        <v>12.83554198092532</v>
+        <v>15.14269001399755</v>
       </c>
       <c r="R18">
-        <v>12.83554198092532</v>
+        <v>136.284210125978</v>
       </c>
       <c r="S18">
-        <v>0.009451668242608752</v>
+        <v>0.01030890099710268</v>
       </c>
       <c r="T18">
-        <v>0.009451668242608752</v>
+        <v>0.01298936328629854</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H19">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I19">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J19">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.01333326596833</v>
+        <v>5.170211333333333</v>
       </c>
       <c r="N19">
-        <v>5.01333326596833</v>
+        <v>15.510634</v>
       </c>
       <c r="O19">
-        <v>0.209183492290983</v>
+        <v>0.2102049704707969</v>
       </c>
       <c r="P19">
-        <v>0.209183492290983</v>
+        <v>0.2533280614069559</v>
       </c>
       <c r="Q19">
-        <v>71.60338776507751</v>
+        <v>75.19348727087043</v>
       </c>
       <c r="R19">
-        <v>71.60338776507751</v>
+        <v>676.741385437834</v>
       </c>
       <c r="S19">
-        <v>0.05272636459045687</v>
+        <v>0.05119052263407371</v>
       </c>
       <c r="T19">
-        <v>0.05272636459045687</v>
+        <v>0.06450079358569369</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H20">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I20">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J20">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.6353900043942</v>
+        <v>4.853575333333334</v>
       </c>
       <c r="N20">
-        <v>4.6353900043942</v>
+        <v>14.560726</v>
       </c>
       <c r="O20">
-        <v>0.1934136467312243</v>
+        <v>0.1973315197085667</v>
       </c>
       <c r="P20">
-        <v>0.1934136467312243</v>
+        <v>0.2378136503161547</v>
       </c>
       <c r="Q20">
-        <v>66.205378800584</v>
+        <v>70.5884598357251</v>
       </c>
       <c r="R20">
-        <v>66.205378800584</v>
+        <v>635.296138521526</v>
       </c>
       <c r="S20">
-        <v>0.04875144946970537</v>
+        <v>0.04805549366141613</v>
       </c>
       <c r="T20">
-        <v>0.04875144946970537</v>
+        <v>0.06055061206291396</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H21">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I21">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J21">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.559971320227</v>
+        <v>12.56068</v>
       </c>
       <c r="N21">
-        <v>12.559971320227</v>
+        <v>25.12136</v>
       </c>
       <c r="O21">
-        <v>0.5240702192440819</v>
+        <v>0.5106788094851177</v>
       </c>
       <c r="P21">
-        <v>0.5240702192440819</v>
+        <v>0.4102956351562577</v>
       </c>
       <c r="Q21">
-        <v>179.3889312855723</v>
+        <v>182.6775098348933</v>
       </c>
       <c r="R21">
-        <v>179.3889312855723</v>
+        <v>1096.06505900936</v>
       </c>
       <c r="S21">
-        <v>0.1320960710055764</v>
+        <v>0.1243639248736106</v>
       </c>
       <c r="T21">
-        <v>0.1320960710055764</v>
+        <v>0.1044668874239378</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H22">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I22">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J22">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.858820278469918</v>
+        <v>0.9703876666666668</v>
       </c>
       <c r="N22">
-        <v>0.858820278469918</v>
+        <v>2.911163</v>
       </c>
       <c r="O22">
-        <v>0.03583464644574196</v>
+        <v>0.03945299285965207</v>
       </c>
       <c r="P22">
-        <v>0.03583464644574196</v>
+        <v>0.04754668824173519</v>
       </c>
       <c r="Q22">
-        <v>6.674915392753904</v>
+        <v>7.5704895705705</v>
       </c>
       <c r="R22">
-        <v>6.674915392753904</v>
+        <v>45.422937423423</v>
       </c>
       <c r="S22">
-        <v>0.0049151867473573</v>
+        <v>0.005153868131122549</v>
       </c>
       <c r="T22">
-        <v>0.0049151867473573</v>
+        <v>0.004329298567884354</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H23">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I23">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J23">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.898684428323798</v>
+        <v>1.041192666666667</v>
       </c>
       <c r="N23">
-        <v>0.898684428323798</v>
+        <v>3.123578</v>
       </c>
       <c r="O23">
-        <v>0.0374979952879688</v>
+        <v>0.04233170747586662</v>
       </c>
       <c r="P23">
-        <v>0.0374979952879688</v>
+        <v>0.05101596487889641</v>
       </c>
       <c r="Q23">
-        <v>6.984747186610448</v>
+        <v>8.122875521523</v>
       </c>
       <c r="R23">
-        <v>6.984747186610448</v>
+        <v>48.737253129138</v>
       </c>
       <c r="S23">
-        <v>0.005143336624541786</v>
+        <v>0.005529923645386916</v>
       </c>
       <c r="T23">
-        <v>0.005143336624541786</v>
+        <v>0.004645188799828478</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H24">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I24">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J24">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.01333326596833</v>
+        <v>5.170211333333333</v>
       </c>
       <c r="N24">
-        <v>5.01333326596833</v>
+        <v>15.510634</v>
       </c>
       <c r="O24">
-        <v>0.209183492290983</v>
+        <v>0.2102049704707969</v>
       </c>
       <c r="P24">
-        <v>0.209183492290983</v>
+        <v>0.2533280614069559</v>
       </c>
       <c r="Q24">
-        <v>38.96458458763482</v>
+        <v>40.335458004219</v>
       </c>
       <c r="R24">
-        <v>38.96458458763482</v>
+        <v>242.012748025314</v>
       </c>
       <c r="S24">
-        <v>0.02869223031490884</v>
+        <v>0.02745973422515533</v>
       </c>
       <c r="T24">
-        <v>0.02869223031490884</v>
+        <v>0.02306643961989705</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H25">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I25">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J25">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.6353900043942</v>
+        <v>4.853575333333334</v>
       </c>
       <c r="N25">
-        <v>4.6353900043942</v>
+        <v>14.560726</v>
       </c>
       <c r="O25">
-        <v>0.1934136467312243</v>
+        <v>0.1973315197085667</v>
       </c>
       <c r="P25">
-        <v>0.1934136467312243</v>
+        <v>0.2378136503161547</v>
       </c>
       <c r="Q25">
-        <v>36.02713730382904</v>
+        <v>37.865218925541</v>
       </c>
       <c r="R25">
-        <v>36.02713730382904</v>
+        <v>227.191313553246</v>
       </c>
       <c r="S25">
-        <v>0.02652919136821351</v>
+        <v>0.02577803499749327</v>
       </c>
       <c r="T25">
-        <v>0.02652919136821351</v>
+        <v>0.02165379616983195</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H26">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I26">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J26">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.559971320227</v>
+        <v>12.56068</v>
       </c>
       <c r="N26">
-        <v>12.559971320227</v>
+        <v>25.12136</v>
       </c>
       <c r="O26">
-        <v>0.5240702192440819</v>
+        <v>0.5106788094851177</v>
       </c>
       <c r="P26">
-        <v>0.5240702192440819</v>
+        <v>0.4102956351562577</v>
       </c>
       <c r="Q26">
-        <v>97.61849830478512</v>
+        <v>97.99227690714</v>
       </c>
       <c r="R26">
-        <v>97.61849830478512</v>
+        <v>391.96910762856</v>
       </c>
       <c r="S26">
-        <v>0.07188303085990756</v>
+        <v>0.06671157371527638</v>
       </c>
       <c r="T26">
-        <v>0.07188303085990756</v>
+        <v>0.03735890703176266</v>
       </c>
     </row>
   </sheetData>
